--- a/OnBoard/output/trust/catch/Catch_Trust_5.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_5.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -888,21 +888,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pecten jacobaeus</t>
+          <t>Sepia elegans</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SEPIELE</t>
         </is>
       </c>
       <c r="G13">
-        <v>1.5</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+        <v>0.019</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -931,19 +929,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sepia elegans</t>
+          <t>Sepia officinalis</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SEPIELE</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="G14">
-        <v>0.019</v>
+        <v>0.399</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -972,19 +970,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sepia officinalis</t>
+          <t>Serranus hepatus</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="G15">
-        <v>0.399</v>
+        <v>0.023</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1013,19 +1011,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Serranus hepatus</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G16">
-        <v>0.023</v>
+        <v>7.608</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1054,19 +1052,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G17">
-        <v>7.608</v>
+        <v>0.102</v>
       </c>
       <c r="H17">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1090,24 +1088,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Aequipecten opercularis</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="G18">
-        <v>0.102</v>
+        <v>0.056</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1136,19 +1134,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Aequipecten opercularis</t>
+          <t>Arnoglossus laterna</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="G19">
-        <v>0.056</v>
+        <v>0.157</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1177,19 +1175,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Arnoglossus laterna</t>
+          <t>Chelidonichthys lucernus</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="G20">
-        <v>0.157</v>
+        <v>0.053</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1218,19 +1216,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Chelidonichthys lucernus</t>
+          <t>Chlamys glabra</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="G21">
-        <v>0.053</v>
+        <v>0.094</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1259,19 +1257,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Chlamys glabra</t>
+          <t>Eledone moschata</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="G22">
-        <v>0.094</v>
+        <v>0.253</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1300,16 +1298,16 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Eledone moschata</t>
+          <t>Lepidotrigla cavillone</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="G23">
-        <v>0.253</v>
+        <v>0.026</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -1341,19 +1339,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Lepidotrigla cavillone</t>
+          <t>Natica stercusmuscarum</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>NATISTE</t>
         </is>
       </c>
       <c r="G24">
-        <v>0.026</v>
+        <v>0.016</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1382,19 +1380,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Natica stercusmuscarum</t>
+          <t>Ostrea edulis</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NATISTE</t>
+          <t>OSTREDU</t>
         </is>
       </c>
       <c r="G25">
-        <v>0.016</v>
+        <v>0.342</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1423,19 +1421,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ostrea edulis</t>
+          <t>Pagellus erythrinus</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>OSTREDU</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="G26">
-        <v>0.342</v>
+        <v>0.019</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1464,19 +1462,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pagellus erythrinus</t>
+          <t>Sepia officinalis</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="G27">
-        <v>0.019</v>
+        <v>0.653</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1505,21 +1503,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pecten jacobaeus</t>
+          <t>Serranus hepatus</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="G28">
-        <v>1.6</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+        <v>0.016</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1548,19 +1544,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sepia officinalis</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G29">
-        <v>0.653</v>
+        <v>4.163</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1589,22 +1585,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Serranus hepatus</t>
+          <t>Actiniaria nd</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>ACTINND</t>
         </is>
       </c>
       <c r="G30">
-        <v>0.016</v>
+        <v>0.001</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="31">
@@ -1630,22 +1626,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Anadara transversa</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ANADTRA</t>
         </is>
       </c>
       <c r="G31">
-        <v>4.163</v>
+        <v>0.001</v>
       </c>
       <c r="H31">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="32">
@@ -1671,22 +1667,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Actiniaria nd</t>
+          <t>Anomia ephippium</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ACTINND</t>
+          <t>ANOMEPH</t>
         </is>
       </c>
       <c r="G32">
         <v>0.001</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I32">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="33">
@@ -1712,12 +1708,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Anadara transversa</t>
+          <t>Antalis inaequicostata</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ANADTRA</t>
+          <t>DENTINA</t>
         </is>
       </c>
       <c r="G33">
@@ -1727,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="I33">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="34">
@@ -1753,22 +1749,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Anomia ephippium</t>
+          <t>Aporrhais pespelecani</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ANOMEPH</t>
+          <t>APORPES</t>
         </is>
       </c>
       <c r="G34">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="H34">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="35">
@@ -1794,22 +1790,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Antalis inaequicostata</t>
+          <t>Ascidia virginea</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>DENTINA</t>
+          <t>ASCIVIR</t>
         </is>
       </c>
       <c r="G35">
-        <v>0.001</v>
+        <v>0.019</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I35">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="36">
@@ -1835,22 +1831,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Aporrhais pespelecani</t>
+          <t>Ascidiacea nd</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>APORPES</t>
+          <t>ASCIDND</t>
         </is>
       </c>
       <c r="G36">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="37">
@@ -1876,22 +1872,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ascidia virginea</t>
+          <t>Astropecten irregularis</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ASCIVIR</t>
+          <t>ASTRIRR</t>
         </is>
       </c>
       <c r="G37">
-        <v>0.019</v>
+        <v>0.051</v>
       </c>
       <c r="H37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I37">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="38">
@@ -1917,22 +1913,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ascidiacea nd</t>
+          <t>Biological discard</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ASCIDND</t>
+          <t>BIOLDIS</t>
         </is>
       </c>
       <c r="G38">
-        <v>0.001</v>
+        <v>1.192</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I38">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="39">
@@ -1958,22 +1954,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Astropecten irregularis</t>
+          <t>Bolinus brandaris</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ASTRIRR</t>
+          <t>MUREBRA</t>
         </is>
       </c>
       <c r="G39">
-        <v>0.051</v>
+        <v>0.011</v>
       </c>
       <c r="H39">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="I39">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="40">
@@ -1999,22 +1995,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Biological discard</t>
+          <t>Calliactis parasitica</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>BIOLDIS</t>
+          <t>CALLPAR</t>
         </is>
       </c>
       <c r="G40">
-        <v>1.192</v>
+        <v>0.003</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="41">
@@ -2040,22 +2036,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Bolinus brandaris</t>
+          <t>Calyptraea chinensis</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>MUREBRA</t>
+          <t>CALICHI</t>
         </is>
       </c>
       <c r="G41">
-        <v>0.011</v>
+        <v>0.002</v>
       </c>
       <c r="H41">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="42">
@@ -2081,22 +2077,22 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Calliactis parasitica</t>
+          <t>Chlamys varia</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>CALLPAR</t>
+          <t>CHLAVAR</t>
         </is>
       </c>
       <c r="G42">
-        <v>0.003</v>
+        <v>0.047</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I42">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="43">
@@ -2122,22 +2118,22 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Calyptraea chinensis</t>
+          <t>Coralligenous concretions</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>CALICHI</t>
+          <t>CORACON</t>
         </is>
       </c>
       <c r="G43">
-        <v>0.002</v>
+        <v>0.156</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I43">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="44">
@@ -2163,22 +2159,22 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Chlamys varia</t>
+          <t>Corbula gibba</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CHLAVAR</t>
+          <t>CORBGIB</t>
         </is>
       </c>
       <c r="G44">
-        <v>0.047</v>
+        <v>0.001</v>
       </c>
       <c r="H44">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="45">
@@ -2204,22 +2200,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Coralligenous concretions</t>
+          <t>Eggs of Murex</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>CORACON</t>
+          <t>EGGSMUR</t>
         </is>
       </c>
       <c r="G45">
-        <v>0.156</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I45">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="46">
@@ -2245,22 +2241,22 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Corbula gibba</t>
+          <t>Ethusa mascarone</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>CORBGIB</t>
+          <t>ETHUMAS</t>
         </is>
       </c>
       <c r="G46">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="47">
@@ -2286,22 +2282,22 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Eggs of Murex</t>
+          <t>Eunicidae nd</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>EGGSMUR</t>
+          <t>EUNIND</t>
         </is>
       </c>
       <c r="G47">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="48">
@@ -2327,22 +2323,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Ethusa mascarone</t>
+          <t>Euspira macilenta</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ETHUMAS</t>
+          <t>EUSPMAC</t>
         </is>
       </c>
       <c r="G48">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="49">
@@ -2368,22 +2364,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Eunicidae nd</t>
+          <t>Fusinus rostratus</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>EUNIND</t>
+          <t>FUSIROS</t>
         </is>
       </c>
       <c r="G49">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="50">
@@ -2409,22 +2405,22 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Euspira macilenta</t>
+          <t>Hexaplex trunculus</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>EUSPMAC</t>
+          <t>HEXATRU</t>
         </is>
       </c>
       <c r="G50">
-        <v>0.001</v>
+        <v>0.051</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="51">
@@ -2450,22 +2446,22 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Fusinus rostratus</t>
+          <t>Hiatella arctica</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>FUSIROS</t>
+          <t>HIATARC</t>
         </is>
       </c>
       <c r="G51">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="52">
@@ -2491,22 +2487,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Hexaplex trunculus</t>
+          <t>Holoturoidea nd</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>HEXATRU</t>
+          <t>HOLOTND</t>
         </is>
       </c>
       <c r="G52">
-        <v>0.051</v>
+        <v>0.002</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="53">
@@ -2532,22 +2528,22 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Hiatella arctica</t>
+          <t>Inachus dorsettensis</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>HIATARC</t>
+          <t>INACDOR</t>
         </is>
       </c>
       <c r="G53">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I53">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="54">
@@ -2573,22 +2569,22 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Holoturoidea nd</t>
+          <t>Liocarcinus depurator</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>HOLOTND</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="G54">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="55">
@@ -2614,22 +2610,22 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Inachus dorsettensis</t>
+          <t>Liocarcinus maculatus</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>INACDOR</t>
+          <t>MCPIMAC</t>
         </is>
       </c>
       <c r="G55">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="56">
@@ -2655,22 +2651,22 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Liocarcinus depurator</t>
+          <t>Medorippe lanata</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MEDOLAN</t>
         </is>
       </c>
       <c r="G56">
-        <v>0.004</v>
+        <v>0.023</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I56">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="57">
@@ -2696,22 +2692,22 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Liocarcinus maculatus</t>
+          <t>Microcosmus vulgaris</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>MCPIMAC</t>
+          <t>MICRSUL</t>
         </is>
       </c>
       <c r="G57">
-        <v>0.001</v>
+        <v>0.078</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I57">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="58">
@@ -2737,22 +2733,22 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Medorippe lanata</t>
+          <t>Nassarius lima</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MEDOLAN</t>
+          <t>NASSLIM</t>
         </is>
       </c>
       <c r="G58">
-        <v>0.023</v>
+        <v>0.002</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="59">
@@ -2778,22 +2774,22 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Microcosmus vulgaris</t>
+          <t>Ocenebra erinacea</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>MICRSUL</t>
+          <t>OCENERI</t>
         </is>
       </c>
       <c r="G59">
-        <v>0.078</v>
+        <v>0.01</v>
       </c>
       <c r="H59">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="60">
@@ -2819,22 +2815,22 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Nassarius lima</t>
+          <t>Ocnus planci (=Cucumaria planci)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>NASSLIM</t>
+          <t>OCNUPLA</t>
         </is>
       </c>
       <c r="G60">
-        <v>0.002</v>
+        <v>0.591</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="I60">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="61">
@@ -2860,22 +2856,22 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Ocenebra erinacea</t>
+          <t>Ophiura albida</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>OCENERI</t>
+          <t>OPHIALB</t>
         </is>
       </c>
       <c r="G61">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="62">
@@ -2901,22 +2897,22 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ocnus planci (=Cucumaria planci)</t>
+          <t>Ophiura ophiura</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>OCNUPLA</t>
+          <t>OPHIOPH</t>
         </is>
       </c>
       <c r="G62">
-        <v>0.591</v>
+        <v>0.021</v>
       </c>
       <c r="H62">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="I62">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="63">
@@ -2942,22 +2938,22 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ophiura albida</t>
+          <t>Paguristes eremita</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>OPHIALB</t>
+          <t>PAGUERE</t>
         </is>
       </c>
       <c r="G63">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I63">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="64">
@@ -2983,22 +2979,22 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ophiura ophiura</t>
+          <t>Pagurus cuanensis</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>OPHIOPH</t>
+          <t>PAGUCUA</t>
         </is>
       </c>
       <c r="G64">
-        <v>0.021</v>
+        <v>0.001</v>
       </c>
       <c r="H64">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="65">
@@ -3024,22 +3020,22 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Paguristes eremita</t>
+          <t>Phascolion strombus</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>PAGUERE</t>
+          <t>PHASSTR</t>
         </is>
       </c>
       <c r="G65">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="66">
@@ -3065,22 +3061,22 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Pagurus cuanensis</t>
+          <t>Pilumnus spinifer</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>PAGUCUA</t>
+          <t>PILUSPI</t>
         </is>
       </c>
       <c r="G66">
         <v>0.001</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="67">
@@ -3106,12 +3102,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Phascolion strombus</t>
+          <t>Pitar rudis</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>PHASSTR</t>
+          <t>PITARUD</t>
         </is>
       </c>
       <c r="G67">
@@ -3121,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="I67">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="68">
@@ -3147,22 +3143,22 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Pilumnus spinifer</t>
+          <t>Porifera nd</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>PILUSPI</t>
+          <t>PORIFND</t>
         </is>
       </c>
       <c r="G68">
-        <v>0.001</v>
+        <v>0.017</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I68">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="69">
@@ -3188,22 +3184,22 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Pitar rudis</t>
+          <t>Psammechinus microtuberculatus</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>PITARUD</t>
+          <t>PSAMMIC</t>
         </is>
       </c>
       <c r="G69">
-        <v>0.001</v>
+        <v>0.634</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="I69">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="70">
@@ -3229,22 +3225,22 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Porifera nd</t>
+          <t>Schizaster canaliferus</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>PORIFND</t>
+          <t>SCHICAN</t>
         </is>
       </c>
       <c r="G70">
-        <v>0.017</v>
+        <v>0.01</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I70">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="71">
@@ -3270,22 +3266,22 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Psammechinus microtuberculatus</t>
+          <t>Shells NA</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>PSAMMIC</t>
+          <t>SHELLS</t>
         </is>
       </c>
       <c r="G71">
-        <v>0.634</v>
+        <v>1.084</v>
       </c>
       <c r="H71">
-        <v>222</v>
+        <v>-1</v>
       </c>
       <c r="I71">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="72">
@@ -3311,22 +3307,22 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Schizaster canaliferus</t>
+          <t>Spisula subtruncata</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>SCHICAN</t>
+          <t>SPISSUB</t>
         </is>
       </c>
       <c r="G72">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="H72">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="73">
@@ -3352,22 +3348,22 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Stones NA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>STONES</t>
         </is>
       </c>
       <c r="G73">
-        <v>1.084</v>
+        <v>0.019</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I73">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="74">
@@ -3393,22 +3389,22 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Spisula subtruncata</t>
+          <t>Suberites domuncula</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>SPISSUB</t>
+          <t>SUBEDOM</t>
         </is>
       </c>
       <c r="G74">
-        <v>0.001</v>
+        <v>0.015</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="75">
@@ -3434,22 +3430,22 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Stones NA</t>
+          <t>Syllidae nd</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>STONES</t>
+          <t>SYLLIND</t>
         </is>
       </c>
       <c r="G75">
-        <v>0.019</v>
+        <v>0.001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="76">
@@ -3475,22 +3471,22 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Suberites domuncula</t>
+          <t>Timoclea ovata</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>SUBEDOM</t>
+          <t>TIMOOVA</t>
         </is>
       </c>
       <c r="G76">
-        <v>0.015</v>
+        <v>0.001</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I76">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
     <row r="77">
@@ -3516,104 +3512,22 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Syllidae nd</t>
+          <t>Wood NA</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>SYLLIND</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="G77">
-        <v>0.001</v>
+        <v>0.249</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I77">
-        <v>66.515625</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Timoclea ovata</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>TIMOOVA</t>
-        </is>
-      </c>
-      <c r="G78">
-        <v>0.001</v>
-      </c>
-      <c r="H78">
-        <v>9</v>
-      </c>
-      <c r="I78">
-        <v>66.515625</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Wood NA</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="G79">
-        <v>0.249</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>66.515625</v>
+        <v>66.903125</v>
       </c>
     </row>
   </sheetData>
